--- a/QuantumMechanics_Abhidhamma_Matrix.xlsx
+++ b/QuantumMechanics_Abhidhamma_Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIjay\_Papers Publish and NotebooLM research\Abhidhamma and Quantum Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E35358-F723-42BA-A3A4-D92DCEA4323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACB530-E702-432F-AFB5-B138B2086824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="37100" windowHeight="20100" xr2:uid="{09DC3E6F-74F6-410E-8F2D-7AC46B4BC046}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{09DC3E6F-74F6-410E-8F2D-7AC46B4BC046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,401 @@
     <t>1. Nature of Reality</t>
   </si>
   <si>
-    <r>
-      <t>Deconstructs solid matter</t>
+    <t>2. Reality as Process</t>
+  </si>
+  <si>
+    <t>3. Deconstruction of the Self</t>
+  </si>
+  <si>
+    <t>4. Interconnected Causality</t>
+  </si>
+  <si>
+    <t>5. The Unconditioned State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logical Parallel</t>
+  </si>
+  <si>
+    <t>Divergence</t>
+  </si>
+  <si>
+    <t>Strongest Agreement</t>
+  </si>
+  <si>
+    <t>Strongest "Observer" Agreement</t>
+  </si>
+  <si>
+    <t>Strongest "Anattā" Agreement</t>
+  </si>
+  <si>
+    <t>Strongest Metaphorical Agreement</t>
+  </si>
+  <si>
+    <t>Point of Contrast</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An "ontology of events". Fundamental reality is described as a "time-ordered sequence of events" (a "history"). This aligns with the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dhamma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> model of reality as a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of momentary phenomena.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A "process-only" ontology. Fundamental reality is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the universal wave function, which evolves deterministically. This strongly aligns with the Abhidhamma's rejection of static "substance".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The "R-process" (Reduction/Collapse) is a "discontinuous" and "probabilistic 'jump'". This concept of a discrete, non-continuous "event" of actualization resonates with the discrete, momentary nature of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>khanas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (moments).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A fundamental conflict. DBBT describes a "continuous evolution". The particle has a "definite and continuous trajectory" guided by a continuous wave. This is the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>opposite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the Abhidhamma's "discrete, stroboscopic sequence" of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>khanika-vada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MWI's evolution is "perfectly continuous and deterministic". It explicitly </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>removes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the collapse postulate and any discontinuous "jump". This "continuous" process is a direct </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>contrast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>discrete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "arising and ceasing" of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>khanika-vada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the central parallel. GRW </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>modifies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> physics to introduce </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>actual, physical, discrete events</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: the "spontaneous" localization "flashes". This provides a "direct, testable, physical analogue" for the doctrine of "momentariness".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The fundamental unit is a "time-ordered sequence of events". It describes reality as a "succession of events", which is the very definition of a "process" model built from discrete steps, aligning well with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>khanika-vada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deconstructs "inherent identity". An object's properties are "contextual" and "defined by the entire descriptive context". This parallels </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anattā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by "undermining the notion of a static, independent essence". Identity is relational, not inherent.</t>
+    </r>
+  </si>
+  <si>
+    <t>A "crucial divergence". GRW is "explicitly designed to remove consciousness from the physics". The collapse is "objective," "stochastic," and "independent of any observer". This is "diametrically opposed" to the Abhidhamma, which "makes consciousness (citta) a central, causal factor".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the "key resonance". MWI "demotes the observer". The observer is "nothing more than a complex quantum system" that "entangles" with the world. This is a "direct parallel" to the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>anattā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Not-Self) doctrine, which "dissolves the 'observer' into... impersonal, conditioned processes" (the Five Aggregates).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A core philosophical conflict. DBBT is a "fully deterministic, objective, and observer-independent theory". It is "explicitly designed to remove consciousness from the physics entirely". This is the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>opposite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the Abhidhamma's "mind-centric" model.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is the "most-cited... parallel". CI makes the "observer" and their "act of measurement" "indispensable" </t>
     </r>
     <r>
       <rPr>
@@ -70,16 +463,64 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. Reality is not "things" but "potentialities" described by a wave function </t>
+      <t>41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for actualizing reality. This resonates with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>citta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (consciousness) as an "active, indispensable factor in 'fabricating' the experienced world".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It embraces quantum entanglement and non-locality. This "points to a deep, non-local structure of reality" and a "holistic reality" that parallels the interconnected web of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paṭiccasamuppāda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A "powerful physical metaphor". The "non-local 'pilot wave'" guides particles based on the "state of the entire universe instantaneously". This "holistic, interdependent web" </t>
     </r>
     <r>
       <rPr>
@@ -89,162 +530,50 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, which are "actualized by observation"</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF444746"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. This parallels </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dhammas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as phenomena, not substance.</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Reality as Process</t>
-  </si>
-  <si>
-    <t>3. Deconstruction of the Self</t>
-  </si>
-  <si>
-    <t>4. Interconnected Causality</t>
-  </si>
-  <si>
-    <t>5. The Unconditioned State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Logical Parallel</t>
-  </si>
-  <si>
-    <t>Divergence</t>
-  </si>
-  <si>
-    <t>Strongest Agreement</t>
-  </si>
-  <si>
-    <t>Strongest "Observer" Agreement</t>
-  </si>
-  <si>
-    <t>Strongest "Anattā" Agreement</t>
-  </si>
-  <si>
-    <t>Strongest Metaphorical Agreement</t>
-  </si>
-  <si>
-    <t>Point of Contrast</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DBBT is a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>realist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> theory </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF444746"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">with a dual ontology: a real, definite particle </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a real "pilot wave". This assertion of a persistent, objective particle contrasts with the Abhidhamma's "process-only" view</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF444746"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>11</t>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">directly mirrors the structure of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paṭiccasamuppāda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, where "the whole... governs the arising and ceasing of every individual part".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Causality is "holistic". Interconnection (entanglement) is a "fundamental and pervasive feature" "encoded within a single mathematical object" (the universal wave function). This parallels the "holistic reality" of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paṭiccasamuppāda</t>
     </r>
     <r>
       <rPr>
@@ -258,189 +587,17 @@
   </si>
   <si>
     <r>
-      <t>The "most striking ontological parallel"</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF444746"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. The "flash ontology" (GRWf) posits reality </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a "sparse 'galaxy' of discrete, point-like spacetime events" ("flashes"). This is a "direct... physical analogue" for </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dhammas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as the ultimate, momentary "events" of existence.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">An "ontology of events". Fundamental reality is described as a "time-ordered sequence of events" (a "history"). This aligns with the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dhamma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> model of reality as a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sequence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of momentary phenomena.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A "process-only" ontology. Fundamental reality is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>only</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the universal wave function, which evolves deterministically. This strongly aligns with the Abhidhamma's rejection of static "substance".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The "R-process" (Reduction/Collapse) is a "discontinuous" and "probabilistic 'jump'". This concept of a discrete, non-continuous "event" of actualization resonates with the discrete, momentary nature of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>khanas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (moments).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A fundamental conflict. DBBT describes a "continuous evolution". The particle has a "definite and continuous trajectory" guided by a continuous wave. This is the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>opposite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of the Abhidhamma's "discrete, stroboscopic sequence" of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>khanika-vada</t>
+      <t xml:space="preserve">The collapse process is "fundamentally non-local". A "hit" on one entangled particle "collapses the entire, spatially extended wave function instantaneously". This "violation of classical locality" parallels the "interconnected web" of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paṭiccasamuppāda</t>
     </r>
     <r>
       <rPr>
@@ -454,74 +611,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">MWI's evolution is "perfectly continuous and deterministic". It explicitly </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>removes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> the collapse postulate and any discontinuous "jump". This "continuous" process is a direct </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>contrast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>discrete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "arising and ceasing" of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>khanika-vada</t>
+      <t xml:space="preserve">Causality is "relational" and "contextual". The properties of any part are "contingent upon the whole". This "relational nature" strongly parallels the "mutual conditionality" of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paṭiccasamuppāda</t>
     </r>
     <r>
       <rPr>
@@ -531,430 +631,6 @@
         <family val="2"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is the central parallel. GRW </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>modifies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> physics to introduce </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>actual, physical, discrete events</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: the "spontaneous" localization "flashes". This provides a "direct, testable, physical analogue" for the doctrine of "momentariness".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The fundamental unit is a "time-ordered sequence of events". It describes reality as a "succession of events", which is the very definition of a "process" model built from discrete steps, aligning well with </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>khanika-vada</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Deconstructs "inherent identity". An object's properties are "contextual" and "defined by the entire descriptive context". This parallels </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anattā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by "undermining the notion of a static, independent essence". Identity is relational, not inherent.</t>
-    </r>
-  </si>
-  <si>
-    <t>A "crucial divergence". GRW is "explicitly designed to remove consciousness from the physics". The collapse is "objective," "stochastic," and "independent of any observer". This is "diametrically opposed" to the Abhidhamma, which "makes consciousness (citta) a central, causal factor".</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is the "key resonance". MWI "demotes the observer". The observer is "nothing more than a complex quantum system" that "entangles" with the world. This is a "direct parallel" to the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>anattā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Not-Self) doctrine, which "dissolves the 'observer' into... impersonal, conditioned processes" (the Five Aggregates).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A core philosophical conflict. DBBT is a "fully deterministic, objective, and observer-independent theory". It is "explicitly designed to remove consciousness from the physics entirely". This is the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>opposite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of the Abhidhamma's "mind-centric" model.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is the "most-cited... parallel". CI makes the "observer" and their "act of measurement" "indispensable" </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF444746"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>41</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> for actualizing reality. This resonates with </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>citta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (consciousness) as an "active, indispensable factor in 'fabricating' the experienced world".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It embraces quantum entanglement and non-locality. This "points to a deep, non-local structure of reality" and a "holistic reality" that parallels the interconnected web of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paṭiccasamuppāda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A "powerful physical metaphor". The "non-local 'pilot wave'" guides particles based on the "state of the entire universe instantaneously". This "holistic, interdependent web" </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF444746"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">directly mirrors the structure of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paṭiccasamuppāda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, where "the whole... governs the arising and ceasing of every individual part".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Causality is "holistic". Interconnection (entanglement) is a "fundamental and pervasive feature" "encoded within a single mathematical object" (the universal wave function). This parallels the "holistic reality" of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paṭiccasamuppāda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The collapse process is "fundamentally non-local". A "hit" on one entangled particle "collapses the entire, spatially extended wave function instantaneously". This "violation of classical locality" parallels the "interconnected web" of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paṭiccasamuppāda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Causality is "relational" and "contextual". The properties of any part are "contingent upon the whole". This "relational nature" strongly parallels the "mutual conditionality" of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Paṭiccasamuppāda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The CH framework's insistence on "consistent frameworks" provides a "strong epistemological parallel" </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF444746"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>94</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">to the Abhidhamma's "two-truth" model: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>paramattha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (ultimate reality) and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>paññatti</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (conventional reality). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nibbāna</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the ultimate </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>paramattha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, and CH provides the logical structure for distinguishing this framework from the conventional, conditioned one.</t>
     </r>
   </si>
   <si>
@@ -1298,6 +974,197 @@
       </rPr>
       <t xml:space="preserve">
 The cessation of all conditioned processes; an uncaused, unarisen reality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deconstructs solid matter. Reality is not "things" but "potentialities" described by a wave function, which are "actualized by observation". This parallels </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dhammas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as phenomena, not substance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DBBT is a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>realist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> theory with a dual ontology: a real, definite particle </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a real "pilot wave". This assertion of a persistent, objective particle contrasts with the Abhidhamma's "process-only" view.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The "most striking ontological parallel". The "flash ontology" (GRWf) posits reality </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a "sparse 'galaxy' of discrete, point-like spacetime events" ("flashes"). This is a "direct... physical analogue" for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dhammas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as the ultimate, momentary "events" of existence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The CH framework's insistence on "consistent frameworks" provides a "strong epistemological parallel" to the Abhidhamma's "two-truth" model: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>paramattha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (ultimate reality) and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>paññatti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (conventional reality). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nibbāna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the ultimate </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>paramattha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and CH provides the logical structure for distinguishing this framework from the conventional, conditioned one.</t>
     </r>
   </si>
 </sst>
@@ -1364,12 +1231,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1389,6 +1250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,19 +1370,10 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,25 +1382,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1551,6 +1418,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFEF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFFFF"/>
@@ -1887,259 +1755,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D792B33-171D-4722-B1D2-0A9DD620E2B0}">
   <dimension ref="B3:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.7265625" style="1"/>
-    <col min="4" max="4" width="2.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7265625" style="1"/>
-    <col min="8" max="8" width="2" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7265625" style="1"/>
-    <col min="10" max="10" width="1.90625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="35.7265625" style="1"/>
+    <col min="6" max="6" width="1" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="35.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="113.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:11" ht="85.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="13"/>
+    <row r="6" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>8</v>
+      <c r="B7" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="114.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>45</v>
+    <row r="8" spans="2:11" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
+    <row r="9" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>9</v>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="141" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="12" t="s">
-        <v>44</v>
+    <row r="11" spans="2:11" ht="113" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
+    <row r="12" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>10</v>
+      <c r="B13" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="127" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
-        <v>47</v>
+      <c r="B14" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
+    <row r="15" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>11</v>
+      <c r="B16" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="142" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/QuantumMechanics_Abhidhamma_Matrix.xlsx
+++ b/QuantumMechanics_Abhidhamma_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIjay\_Papers Publish and NotebooLM research\Abhidhamma and Quantum Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACB530-E702-432F-AFB5-B138B2086824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9CF71-870F-44D7-8DB9-05EDCC71B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{09DC3E6F-74F6-410E-8F2D-7AC46B4BC046}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Abhidhamma Concept (X-Axis)</t>
   </si>
@@ -1166,13 +1166,16 @@
       </rPr>
       <t>, and CH provides the logical structure for distinguishing this framework from the conventional, conditioned one.</t>
     </r>
+  </si>
+  <si>
+    <t>Quantum Mechanics - Choices (Y-Axis)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,6 +1217,14 @@
       <color rgb="FF1B1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1260,7 +1271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1310,19 +1321,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF00B0F0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00B0F0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00B0F0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
@@ -1363,38 +1361,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1410,6 +1453,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1753,11 +1808,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D792B33-171D-4722-B1D2-0A9DD620E2B0}">
-  <dimension ref="B3:K17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1775,32 +1828,46 @@
     <col min="12" max="16384" width="35.7265625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+    </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1820,7 +1887,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="85.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1840,10 +1907,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1863,7 +1930,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="114" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1883,10 +1950,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1906,7 +1973,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="113" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1926,10 +1993,10 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1949,7 +2016,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="127" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1969,10 +2036,10 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1992,7 +2059,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="142" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2012,6 +2079,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>